--- a/testcase_data/excel/testcase_api.xlsx
+++ b/testcase_data/excel/testcase_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="testcase_data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>x_www_form_urlencoded_data</t>
-  </si>
-  <si>
-    <t>sprite.json</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://gis.kf315.net/api/mapbox/sprite/img/sprite.json</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1005,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1048,16 +1039,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="3:3">
+      <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
